--- a/biology/Mycologie/Botrytis_fabae/Botrytis_fabae.xlsx
+++ b/biology/Mycologie/Botrytis_fabae/Botrytis_fabae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Botrytis fabae est une espèce de champignon ascomycètes de la famille des Sclerotiniaceae, à répartition quasi-cosmopolite.
-C'est l'un des agents responsables de la maladie des taches chocolat, maladie cryptogamique qui affecte les cultures de fèves et féveroles. Cette espèce a été décrite en 1929 par le microbiologiste espagnol, Juan Rodríguez Sardiña[2].
-Les fèves et féveroles (Vicia faba) sont l'hôte principal de ce champignon, mais d'autres espèces de légumineuses sont aussi affectées : Glycine max (soja), Lens culinaris subsp. culinaris (lentille), Phaseolus vulgaris (haricot) et Pisum sativum (pois)[3].
+C'est l'un des agents responsables de la maladie des taches chocolat, maladie cryptogamique qui affecte les cultures de fèves et féveroles. Cette espèce a été décrite en 1929 par le microbiologiste espagnol, Juan Rodríguez Sardiña.
+Les fèves et féveroles (Vicia faba) sont l'hôte principal de ce champignon, mais d'autres espèces de légumineuses sont aussi affectées : Glycine max (soja), Lens culinaris subsp. culinaris (lentille), Phaseolus vulgaris (haricot) et Pisum sativum (pois).
 </t>
         </is>
       </c>
